--- a/SSYSADD1 DOCU/Diagrams/Use Case Description(new).xlsx
+++ b/SSYSADD1 DOCU/Diagrams/Use Case Description(new).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
   <si>
     <t>Use Case</t>
   </si>
@@ -173,9 +173,6 @@
     <t>1.4. Inserts new schedule in the database</t>
   </si>
   <si>
-    <t>Altering will not push throught when the new time and date is not covered in the clinic's operating hours</t>
-  </si>
-  <si>
     <t>Registers in Application</t>
   </si>
   <si>
@@ -228,6 +225,15 @@
   </si>
   <si>
     <t>5.1. System will move the newly registered user's information to the main database</t>
+  </si>
+  <si>
+    <t>If there are no dermatologists within a 1000km radius, the system will display "There are no nearby Dermatologists" and will suggest dermatologists with the highest contact rate</t>
+  </si>
+  <si>
+    <t>If the new time and date is not within operating hours, the altering will not push through and will ask the patient to enter another time and date.</t>
+  </si>
+  <si>
+    <t>If the dermatologist did not confirm the appointment, the appointment will be cancelled; sending an invitation to both parties that the appointment invite expired.</t>
   </si>
 </sst>
 </file>
@@ -365,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -439,11 +445,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,12 +897,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="25"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1020,639 +1031,652 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B31" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="21"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B43" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="18"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="3" t="s">
+    <row r="45" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="21"/>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B52" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="21"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C53" s="21"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="21"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C55" s="21"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C56" s="21"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="21"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C58" s="21"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="23"/>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="B60" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="23"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15"/>
+      <c r="B66" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="21"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="21"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="21"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="21"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="21"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="21"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21"/>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
     </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="15"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21"/>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21"/>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="21"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="21"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="21"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="21"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="21"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="21"/>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="21"/>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="23"/>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
     </row>
-    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="24"/>
       <c r="C97" s="24"/>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="15"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="21"/>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="21"/>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="21"/>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="21"/>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="21"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="21"/>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="21"/>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="21"/>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="21"/>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="21"/>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B109" s="22"/>
-      <c r="C109" s="23"/>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="14" t="s">
+      <c r="B110" s="22"/>
+      <c r="C110" s="23"/>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B111" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="24"/>
       <c r="C112" s="24"/>
     </row>
-    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="24"/>
       <c r="C113" s="24"/>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="15"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="21"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="B107:C107"/>
+  <mergeCells count="79">
     <mergeCell ref="B108:C108"/>
     <mergeCell ref="B109:C109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="A44:A48"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="B104:C104"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B107:C107"/>
     <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B99:C99"/>
     <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B92:C92"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B86:C86"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>

--- a/SSYSADD1 DOCU/Diagrams/Use Case Description(new).xlsx
+++ b/SSYSADD1 DOCU/Diagrams/Use Case Description(new).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
   <si>
     <t>Use Case</t>
   </si>
@@ -131,6 +131,9 @@
     <t>2. Patient inserts new time and/or date of the appointment</t>
   </si>
   <si>
+    <t>Dermatologist</t>
+  </si>
+  <si>
     <t>2.1. System will check the dermatologists availability (if within operating hours)</t>
   </si>
   <si>
@@ -218,9 +221,6 @@
     <t>4.  Email Authentication</t>
   </si>
   <si>
-    <t>4.1. System will send an email authentication using the email input in basic data. (1.1.)</t>
-  </si>
-  <si>
     <t>5. Sucessful Registration</t>
   </si>
   <si>
@@ -234,6 +234,27 @@
   </si>
   <si>
     <t>If the dermatologist did not confirm the appointment, the appointment will be cancelled; sending an invitation to both parties that the appointment invite expired.</t>
+  </si>
+  <si>
+    <t>4.1. System will send an email authentication using the email input in basic data. (System activity 1.1.)</t>
+  </si>
+  <si>
+    <t>Insert Appointment Details</t>
+  </si>
+  <si>
+    <t>Dermatologist will record the events for the accomplished appointment</t>
+  </si>
+  <si>
+    <t>Accomplished appointment</t>
+  </si>
+  <si>
+    <t>Accomplished Appointment</t>
+  </si>
+  <si>
+    <t>The dermatologist will make a summary of all the necessary details and information on the accomplished appointment</t>
+  </si>
+  <si>
+    <t>Dermatologist, Patient</t>
   </si>
 </sst>
 </file>
@@ -770,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,14 +1042,14 @@
         <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="8"/>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1057,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -1066,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="5"/>
     </row>
@@ -1075,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -1084,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="5"/>
     </row>
@@ -1102,7 +1123,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="5"/>
     </row>
@@ -1120,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="5"/>
     </row>
@@ -1129,7 +1150,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C43" s="18"/>
     </row>
@@ -1147,31 +1168,31 @@
     <row r="45" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1187,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" s="21"/>
     </row>
@@ -1196,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" s="21"/>
     </row>
@@ -1205,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" s="21"/>
     </row>
@@ -1214,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" s="21"/>
     </row>
@@ -1223,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" s="21"/>
     </row>
@@ -1232,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" s="21"/>
     </row>
@@ -1241,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" s="21"/>
     </row>
@@ -1257,7 +1278,7 @@
         <v>8</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" s="23"/>
     </row>
@@ -1275,37 +1296,37 @@
     <row r="62" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1329,35 +1350,45 @@
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C70" s="21"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C71" s="21"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C72" s="21"/>
     </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C73" s="21"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="C74" s="21"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1371,14 +1402,18 @@
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C76" s="21"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C77" s="21"/>
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/SSYSADD1 DOCU/Diagrams/Use Case Description(new).xlsx
+++ b/SSYSADD1 DOCU/Diagrams/Use Case Description(new).xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
   <si>
     <t>Use Case</t>
   </si>
@@ -255,6 +256,9 @@
   </si>
   <si>
     <t>Dermatologist, Patient</t>
+  </si>
+  <si>
+    <t>Accomplished Appointment report</t>
   </si>
 </sst>
 </file>
@@ -404,76 +408,76 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,89 +811,89 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -922,106 +926,106 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="25"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
@@ -1030,15 +1034,15 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1046,122 +1050,122 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="23"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="23"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="23"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="23"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1199,142 +1203,142 @@
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="21"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="21"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="21"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="21"/>
+      <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="23"/>
+      <c r="C60" s="13"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1342,341 +1346,361 @@
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="21"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="21"/>
+      <c r="C72" s="11"/>
     </row>
     <row r="73" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="21"/>
+      <c r="C73" s="11"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="21"/>
+      <c r="C74" s="11"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="21"/>
+      <c r="C76" s="11"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="21"/>
+      <c r="C77" s="11"/>
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
+      <c r="B78" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="13"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
+      <c r="B80" s="8">
+        <v>1</v>
+      </c>
+      <c r="C80" s="8"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="21"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="23"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="21"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="21"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="11"/>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="21"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="11"/>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B104" s="20"/>
-      <c r="C104" s="21"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="21"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="11"/>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="21"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="20"/>
-      <c r="C107" s="21"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="11"/>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="21"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="21"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="11"/>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="22"/>
-      <c r="C110" s="23"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="15"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
     </row>
     <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="20"/>
-      <c r="C115" s="21"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
@@ -1688,6 +1712,21 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
@@ -1695,42 +1734,11 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="B115:C115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
